--- a/dados/Conclusoes/valores_tornados_null.xlsx
+++ b/dados/Conclusoes/valores_tornados_null.xlsx
@@ -476,10 +476,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="D3" t="n">
-        <v>144</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4">
@@ -508,10 +508,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>119206</v>
+        <v>176199</v>
       </c>
       <c r="D5" t="n">
-        <v>119206</v>
+        <v>176199</v>
       </c>
     </row>
     <row r="6">
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1292274</v>
+        <v>1553637</v>
       </c>
       <c r="D8" t="n">
-        <v>1292274</v>
+        <v>1553637</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +572,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>64408</v>
+        <v>79331</v>
       </c>
       <c r="D9" t="n">
-        <v>64408</v>
+        <v>79331</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2386900</v>
+        <v>3110604</v>
       </c>
       <c r="D10" t="n">
-        <v>2386900</v>
+        <v>3110604</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2206252</v>
+        <v>2863536</v>
       </c>
       <c r="D11" t="n">
-        <v>2206252</v>
+        <v>2863536</v>
       </c>
     </row>
     <row r="12">
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1141475</v>
+        <v>1377622</v>
       </c>
       <c r="D12" t="n">
-        <v>1141475</v>
+        <v>1377622</v>
       </c>
     </row>
     <row r="13">
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>18014</v>
+        <v>25465</v>
       </c>
       <c r="D13" t="n">
-        <v>18014</v>
+        <v>25465</v>
       </c>
     </row>
     <row r="14">
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -684,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1141477</v>
+        <v>1377626</v>
       </c>
       <c r="D16" t="n">
-        <v>1141477</v>
+        <v>1377626</v>
       </c>
     </row>
     <row r="17">
@@ -700,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1792207</v>
+        <v>2246677</v>
       </c>
       <c r="D17" t="n">
-        <v>1792207</v>
+        <v>2246677</v>
       </c>
     </row>
     <row r="18">
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1446753</v>
+        <v>1781556</v>
       </c>
       <c r="D18" t="n">
-        <v>1446753</v>
+        <v>1781556</v>
       </c>
     </row>
     <row r="19">
@@ -764,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>36229</v>
+        <v>55322</v>
       </c>
       <c r="D21" t="n">
-        <v>36229</v>
+        <v>55322</v>
       </c>
     </row>
     <row r="22">
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>20174</v>
+        <v>37432</v>
       </c>
       <c r="D22" t="n">
-        <v>20174</v>
+        <v>37432</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D25" t="n">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="26">
@@ -844,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1221055</v>
+        <v>1487230</v>
       </c>
       <c r="D26" t="n">
-        <v>1221055</v>
+        <v>1487230</v>
       </c>
     </row>
     <row r="27">
@@ -860,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>3522872</v>
+        <v>4623320</v>
       </c>
       <c r="D27" t="n">
-        <v>3522872</v>
+        <v>4623320</v>
       </c>
     </row>
     <row r="28">
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1245890</v>
+        <v>1501660</v>
       </c>
       <c r="D28" t="n">
-        <v>1245890</v>
+        <v>1501660</v>
       </c>
     </row>
     <row r="29">
@@ -908,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1423963</v>
+        <v>2019869</v>
       </c>
       <c r="D30" t="n">
-        <v>1423963</v>
+        <v>2019869</v>
       </c>
     </row>
     <row r="31">
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>3424205</v>
+        <v>4510643</v>
       </c>
       <c r="D31" t="n">
-        <v>3424205</v>
+        <v>4510643</v>
       </c>
     </row>
     <row r="32">
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>145053</v>
+        <v>275566</v>
       </c>
       <c r="D33" t="n">
-        <v>145053</v>
+        <v>275566</v>
       </c>
     </row>
     <row r="34">
@@ -1004,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1742176</v>
+        <v>2182926</v>
       </c>
       <c r="D36" t="n">
-        <v>1742176</v>
+        <v>2182926</v>
       </c>
     </row>
     <row r="37">
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2105997</v>
+        <v>2721656</v>
       </c>
       <c r="D40" t="n">
-        <v>2105997</v>
+        <v>2721656</v>
       </c>
     </row>
     <row r="41">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55481</v>
+        <v>105956</v>
       </c>
       <c r="C41" t="n">
-        <v>55481</v>
+        <v>105956</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1391401</v>
+        <v>1738373</v>
       </c>
       <c r="C42" t="n">
-        <v>1391401</v>
+        <v>1738373</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>251034</v>
+        <v>704579</v>
       </c>
       <c r="C44" t="n">
-        <v>251034</v>
+        <v>704579</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2664998</v>
+        <v>3511337</v>
       </c>
       <c r="C45" t="n">
-        <v>2664998</v>
+        <v>3511337</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>21702</v>
+        <v>39391</v>
       </c>
       <c r="D47" t="n">
-        <v>21702</v>
+        <v>39391</v>
       </c>
     </row>
     <row r="48">
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>3551615</v>
+        <v>4675520</v>
       </c>
       <c r="D48" t="n">
-        <v>3551615</v>
+        <v>4675520</v>
       </c>
     </row>
   </sheetData>
